--- a/MP4/3D.xlsx
+++ b/MP4/3D.xlsx
@@ -7790,11 +7790,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1059060080"/>
-        <c:axId val="-1059058032"/>
+        <c:axId val="-1059792240"/>
+        <c:axId val="-1059789920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1059060080"/>
+        <c:axId val="-1059792240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7836,7 +7836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1059058032"/>
+        <c:crossAx val="-1059789920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7844,7 +7844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1059058032"/>
+        <c:axId val="-1059789920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7894,7 +7894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1059060080"/>
+        <c:crossAx val="-1059792240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8832,7 +8832,7 @@
   <dimension ref="A1:F497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18788,8 +18788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F497"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A474" workbookViewId="0">
+      <selection sqref="A1:F497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
